--- a/BackTest/2020-01-25 BackTest DAC.xlsx
+++ b/BackTest/2020-01-25 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>170014.9933</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>212447.7865</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>152822.2269</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>192993.2899</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>162320.7172</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>168770.9106</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>289987.4143</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>104611.2305000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>164780.3794000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1322771.7982</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1279066.6703</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1234257.9444</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1274570.9085</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1229097.2541</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1154750.1375</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1548751.4111</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1548751.4111</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1565358.1246</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1606401.8036</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1550975.4246</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1590838.8829</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1547960.5964</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1583872.2752</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1525616.4328</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1564653.6634</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1529127.5049</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1475295.0839</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1501334.775</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1459135.5542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3249874.5348</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3209506.2899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3326894.3978</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3363956.8471</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3429879.342200001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3079570.9386</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3040862.3007</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3041887.400299999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-3065264.006099999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3018649.421799999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3066234.448799998</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3066234.448799998</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-3066234.448799998</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-3010502.730699998</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-3056206.577699998</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-3013802.101699999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-3060151.340299998</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-3039503.741099998</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-3039503.741099998</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2979022.789599998</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3022466.073799998</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2973611.524499998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3017086.333799998</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2982060.930599998</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3039052.367199998</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1589501.640599998</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1520939.987399999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1555440.631899999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1644841.399399999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1068803.688199998</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-918282.3986999982</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-945233.5234999981</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-903871.2038999981</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-953197.7880999981</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-909368.0655999981</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-937382.9830999981</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-978636.2093999981</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-947566.2147999981</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-947566.2147999981</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-916470.685499998</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-963368.0464999981</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-912549.746699998</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-963930.809699998</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-920361.869399998</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1029157.833199998</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-988924.5520999978</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-999335.4294999978</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1044878.417199998</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1011494.496099998</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-989084.0465999976</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-989084.0465999976</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1042296.793099998</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-999374.7924999975</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1014461.192399997</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1046025.761199998</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-998531.2746999975</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-996589.9744999976</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-960430.6880999976</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1002890.984699998</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1036821.434799998</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1111235.923599998</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1082459.488299998</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1055586.593899998</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-1074056.562499998</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-1076468.103499998</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-1121214.459799998</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-1106041.481499998</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1107249.218699998</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-1164546.657099998</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-1219478.729699998</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1183364.994099998</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-1194604.997599998</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-1233874.076399998</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-1323108.928399998</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-1323108.928399998</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-1288739.527699998</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-1315855.880199998</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-1268263.655499998</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-1270859.614699998</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-1270859.614699998</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-1270859.614699998</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-1262866.186399998</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1044366.416599998</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-970815.0780999977</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-1018852.953499998</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-969820.0080999978</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-1009114.611199998</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-972839.1388999977</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-1034704.140799998</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-921995.8500999977</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-906786.3626999977</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-973212.4009999977</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-932584.4376999978</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-970361.5024999978</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-895035.2284999979</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-945570.8791999979</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-952665.174099998</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-978601.9223999979</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-934026.6808999979</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-1236653.196899998</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1742640.872599998</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1700821.957599998</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-1663871.050399998</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24178,10 +24178,14 @@
         <v>-1805482.865299999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="J721" t="n">
+        <v>1.909</v>
+      </c>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
@@ -24214,8 +24218,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24247,8 +24257,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24277,11 +24293,19 @@
         <v>-1900601.474499999</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J724" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24310,15 +24334,17 @@
         <v>-1855876.850799999</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
         <v>1.909</v>
       </c>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,17 +24373,15 @@
         <v>-1902040.625099999</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>1.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
         <v>1.909</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L726" t="n">
@@ -24388,11 +24412,9 @@
         <v>-1848250.372899999</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>1.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
         <v>1.909</v>
       </c>
@@ -24858,9 +24880,11 @@
         <v>-1853743.161799999</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>1.909</v>
+      </c>
       <c r="J739" t="n">
         <v>1.909</v>
       </c>
@@ -25287,7 +25311,7 @@
         <v>-1874473.519999999</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>1.908</v>
@@ -25328,11 +25352,9 @@
         <v>-1914745.851399999</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>1.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
         <v>1.909</v>
       </c>
@@ -25369,11 +25391,9 @@
         <v>-1872506.209199999</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>1.907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
         <v>1.909</v>
       </c>
@@ -25410,7 +25430,7 @@
         <v>-1924249.181999999</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>1.913</v>
@@ -25451,11 +25471,9 @@
         <v>-1887808.326799999</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
         <v>1.909</v>
       </c>
@@ -25492,7 +25510,7 @@
         <v>-1928448.165199999</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>1.91</v>
@@ -25533,7 +25551,7 @@
         <v>-1903630.093599999</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>1.908</v>
@@ -25574,7 +25592,7 @@
         <v>-1951551.804899999</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>1.912</v>
@@ -25615,7 +25633,7 @@
         <v>-1996273.829699999</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>1.908</v>
@@ -25656,7 +25674,7 @@
         <v>-1962015.021899999</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>1.907</v>
@@ -25697,7 +25715,7 @@
         <v>-2011017.116599999</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>1.91</v>
@@ -25738,7 +25756,7 @@
         <v>-1964676.210599999</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>1.906</v>
@@ -25779,7 +25797,7 @@
         <v>-1988441.576099999</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>1.91</v>
@@ -25820,7 +25838,7 @@
         <v>-2030845.552899999</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>1.908</v>
@@ -25861,7 +25879,7 @@
         <v>-2000634.234799999</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>1.907</v>
@@ -25902,7 +25920,7 @@
         <v>-1961231.861999999</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>1.909</v>
@@ -25943,7 +25961,7 @@
         <v>-2004748.427699999</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>1.911</v>
@@ -25984,7 +26002,7 @@
         <v>-1962635.422199999</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>1.907</v>
@@ -26025,7 +26043,7 @@
         <v>-2010048.448599999</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>1.913</v>
@@ -26066,7 +26084,7 @@
         <v>-2010048.448599999</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>1.907</v>
@@ -26107,7 +26125,7 @@
         <v>-1971340.502699999</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>1.907</v>
@@ -26148,7 +26166,7 @@
         <v>-1926606.451299999</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>1.911</v>
@@ -26189,7 +26207,7 @@
         <v>-1975506.339399999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>1.913</v>
@@ -26230,7 +26248,7 @@
         <v>-1943787.902299999</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>1.908</v>
@@ -26271,7 +26289,7 @@
         <v>-1988751.334899999</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>1.91</v>
@@ -26312,7 +26330,7 @@
         <v>-1988751.334899999</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>1.909</v>
@@ -26353,7 +26371,7 @@
         <v>-1988751.334899999</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>1.909</v>
@@ -26394,7 +26412,7 @@
         <v>-1937223.726199999</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>1.909</v>
@@ -26435,7 +26453,7 @@
         <v>-1924602.212499999</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>1.91</v>
@@ -26476,7 +26494,7 @@
         <v>-1970726.9257</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>1.916</v>
@@ -26517,7 +26535,7 @@
         <v>-2003420.4282</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>1.914</v>
@@ -26558,7 +26576,7 @@
         <v>-1952315.6705</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>1.912</v>
@@ -26599,7 +26617,7 @@
         <v>-1933748.8707</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>1.916</v>
@@ -26640,7 +26658,7 @@
         <v>-1978874.2689</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>1.917</v>
@@ -26681,7 +26699,7 @@
         <v>-2019964.417099999</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>1.91</v>
@@ -26722,7 +26740,7 @@
         <v>-1960548.617399999</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>1.909</v>
@@ -26763,7 +26781,7 @@
         <v>-1960548.617399999</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>1.912</v>
@@ -26804,7 +26822,7 @@
         <v>-1918398.415899999</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787" t="n">
         <v>1.912</v>
@@ -26845,7 +26863,7 @@
         <v>-1956073.414099999</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>1.917</v>
@@ -26886,7 +26904,7 @@
         <v>-1915214.132199999</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>1.909</v>
@@ -32504,7 +32522,7 @@
         <v>-1900733.0939</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
@@ -32543,7 +32561,7 @@
         <v>-1864054.9412</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
@@ -32660,7 +32678,7 @@
         <v>-1827796.2132</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
@@ -32699,7 +32717,7 @@
         <v>-1797077.6951</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
@@ -32777,7 +32795,7 @@
         <v>-1784890.8385</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
@@ -32816,7 +32834,7 @@
         <v>-1761221.1924</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
@@ -33011,7 +33029,7 @@
         <v>-1811592.2636</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
@@ -33245,7 +33263,7 @@
         <v>-1623672.894</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
@@ -33284,7 +33302,7 @@
         <v>-1674360.9338</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
@@ -33323,7 +33341,7 @@
         <v>-1720614.2068</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
@@ -33362,7 +33380,7 @@
         <v>-1676132.1125</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
@@ -33401,7 +33419,7 @@
         <v>-1720170.7323</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
@@ -33440,7 +33458,7 @@
         <v>-1679632.8898</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
@@ -33479,7 +33497,7 @@
         <v>-1641869.633799999</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
@@ -33518,7 +33536,7 @@
         <v>-1641869.633799999</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
@@ -33557,7 +33575,7 @@
         <v>-1677228.6657</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
@@ -33908,7 +33926,7 @@
         <v>-1807413.3412</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
@@ -33986,7 +34004,7 @@
         <v>-1715259.8058</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
@@ -37925,9 +37943,11 @@
         <v>-3088583.375399999</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1.911</v>
+      </c>
       <c r="J1072" t="n">
         <v>1.909</v>
       </c>
@@ -37964,9 +37984,11 @@
         <v>-3068942.565999999</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>1.908</v>
+      </c>
       <c r="J1073" t="n">
         <v>1.909</v>
       </c>
@@ -38003,9 +38025,11 @@
         <v>-3104354.816499999</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>1.916</v>
+      </c>
       <c r="J1074" t="n">
         <v>1.909</v>
       </c>
@@ -38042,9 +38066,11 @@
         <v>-3086595.308399999</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1.914</v>
+      </c>
       <c r="J1075" t="n">
         <v>1.909</v>
       </c>
@@ -38081,9 +38107,11 @@
         <v>-3134826.477799999</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J1076" t="n">
         <v>1.909</v>
       </c>
@@ -38120,9 +38148,11 @@
         <v>-3098077.074899998</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>1.911</v>
+      </c>
       <c r="J1077" t="n">
         <v>1.909</v>
       </c>
@@ -38159,9 +38189,11 @@
         <v>-3003138.646199998</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>1.92</v>
+      </c>
       <c r="J1078" t="n">
         <v>1.909</v>
       </c>
@@ -38510,9 +38542,11 @@
         <v>-3088327.855999998</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>1.914</v>
+      </c>
       <c r="J1087" t="n">
         <v>1.909</v>
       </c>
@@ -38549,9 +38583,11 @@
         <v>-3128689.994299999</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>1.917</v>
+      </c>
       <c r="J1088" t="n">
         <v>1.909</v>
       </c>
@@ -38588,9 +38624,11 @@
         <v>-3079941.283899998</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>1.916</v>
+      </c>
       <c r="J1089" t="n">
         <v>1.909</v>
       </c>
@@ -38627,9 +38665,11 @@
         <v>-3110179.811399998</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J1090" t="n">
         <v>1.909</v>
       </c>
@@ -38666,9 +38706,11 @@
         <v>-3073347.172799998</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>1.909</v>
+      </c>
       <c r="J1091" t="n">
         <v>1.909</v>
       </c>
@@ -38705,9 +38747,11 @@
         <v>-3150457.609199998</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>1.914</v>
+      </c>
       <c r="J1092" t="n">
         <v>1.909</v>
       </c>
@@ -38744,9 +38788,11 @@
         <v>-3201510.039299998</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J1093" t="n">
         <v>1.909</v>
       </c>
@@ -38783,9 +38829,11 @@
         <v>-3145605.187699998</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>1.909</v>
+      </c>
       <c r="J1094" t="n">
         <v>1.909</v>
       </c>
@@ -38822,9 +38870,11 @@
         <v>-3104318.904599998</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>1.912</v>
+      </c>
       <c r="J1095" t="n">
         <v>1.909</v>
       </c>
@@ -38861,7 +38911,7 @@
         <v>-3085945.203899998</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>1.913</v>
@@ -38902,9 +38952,11 @@
         <v>-3133654.327999998</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J1097" t="n">
         <v>1.909</v>
       </c>
@@ -38941,11 +38993,9 @@
         <v>-3398223.291899998</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>1.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
         <v>1.909</v>
       </c>
@@ -38982,9 +39032,11 @@
         <v>-3361781.104699998</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>1.908</v>
+      </c>
       <c r="J1099" t="n">
         <v>1.909</v>
       </c>
@@ -39021,9 +39073,11 @@
         <v>-3208991.970099998</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>1.912</v>
+      </c>
       <c r="J1100" t="n">
         <v>1.909</v>
       </c>
@@ -39060,9 +39114,11 @@
         <v>-3208991.970099998</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J1101" t="n">
         <v>1.909</v>
       </c>
@@ -39138,9 +39194,11 @@
         <v>-3233319.689399998</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J1103" t="n">
         <v>1.909</v>
       </c>
@@ -39333,9 +39391,11 @@
         <v>-3143445.374399998</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>1.913</v>
+      </c>
       <c r="J1108" t="n">
         <v>1.909</v>
       </c>
@@ -39450,9 +39510,11 @@
         <v>-3130364.713399998</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J1111" t="n">
         <v>1.909</v>
       </c>
@@ -44208,7 +44270,7 @@
         <v>-3264442.863099999</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
@@ -48866,6 +48928,6 @@
       <c r="M1352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>